--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1350328.764023907</v>
+        <v>1347682.024714241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11189511.94688904</v>
+        <v>10981553.63325424</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>439189.2454881956</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10886234.04771872</v>
+        <v>10970628.38549166</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>317.3377797288567</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>139.9970707947473</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>143.4259610297071</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.914084567880973</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>90.0602967847353</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>209.2704271186842</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>196.0797462605932</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.04502615481967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.24364034742717</v>
+        <v>412.8640079061473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.3720405157745</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>116.4567663199057</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.749879200239365</v>
+        <v>153.447518621437</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.4203107007875</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1505545391175</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.7067558814507</v>
+        <v>136.0386817879867</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792032</v>
+        <v>99.63348153367554</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152285</v>
+        <v>44.47137980094086</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>19.1435816453166</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729024</v>
+        <v>147.4464263052699</v>
       </c>
       <c r="T9" t="n">
-        <v>193.5674321249209</v>
+        <v>194.9053264587215</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8337004177012</v>
+        <v>225.8555376483943</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>152.685539226958</v>
       </c>
       <c r="C10" t="n">
-        <v>64.61776921061018</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6187736822062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0270165858485</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.1063140705173</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2593604394185</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833903</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>238.5624260321024</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.7145272031979</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.56702400647279</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754677</v>
+        <v>359.551749875465</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.37259901119259</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.5386588819541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>264.5606084460156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853737</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.0656089242801</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>44.75138076689215</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.66004604094933</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>181.3074675142871</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.6687625091745</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>95.81917536083709</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756266</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1358.733275299433</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="C2" t="n">
-        <v>1358.733275299433</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="D2" t="n">
-        <v>1000.467576692682</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.467576692682</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F2" t="n">
-        <v>589.4816719030746</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G2" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3115823537878</v>
+        <v>1116.114303067149</v>
       </c>
       <c r="M2" t="n">
-        <v>1341.029393337099</v>
+        <v>1747.832114050461</v>
       </c>
       <c r="N2" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O2" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4364,16 +4364,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>1679.276487146763</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>1358.733275299433</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X2" t="n">
-        <v>1358.733275299433</v>
+        <v>1185.096649255691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1358.733275299433</v>
+        <v>794.9573172798794</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K3" t="n">
-        <v>295.3416275592184</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L3" t="n">
-        <v>799.7031674253369</v>
+        <v>743.3295309259838</v>
       </c>
       <c r="M3" t="n">
-        <v>1440.248516892442</v>
+        <v>1383.874880393088</v>
       </c>
       <c r="N3" t="n">
-        <v>1638.905258545106</v>
+        <v>2036.048759695797</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S3" t="n">
         <v>2464.467288245464</v>
@@ -4440,19 +4440,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.8799782004855</v>
+        <v>197.5756276504281</v>
       </c>
       <c r="C4" t="n">
-        <v>345.9437952725787</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>345.9437952725787</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>198.0307016901855</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>198.0307016901855</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
         <v>153.7488491352227</v>
@@ -4513,25 +4513,25 @@
         <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T4" t="n">
-        <v>696.5284430307253</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U4" t="n">
-        <v>696.5284430307253</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="V4" t="n">
-        <v>696.5284430307253</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="W4" t="n">
-        <v>696.5284430307253</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="X4" t="n">
-        <v>696.5284430307253</v>
+        <v>197.5756276504281</v>
       </c>
       <c r="Y4" t="n">
-        <v>696.5284430307253</v>
+        <v>197.5756276504281</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.521527897677</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.521527897677</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.255829290926</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.467576692682</v>
+        <v>596.4271726522782</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
         <v>172.393890139502</v>
@@ -4562,19 +4562,19 @@
         <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>256.7652667212226</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>809.5785249674218</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>996.2779377928294</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N5" t="n">
         <v>1623.585605852676</v>
@@ -4583,7 +4583,7 @@
         <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2544.075980228385</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2329.276118496096</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2075.584415241247</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.521527897677</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>1744.521527897677</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X5" t="n">
-        <v>1744.521527897677</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.521527897677</v>
+        <v>1368.815265314644</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
         <v>120.3087392029699</v>
@@ -4659,7 +4659,7 @@
         <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>534.3147313071859</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="C7" t="n">
-        <v>365.378548379279</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="D7" t="n">
-        <v>365.378548379279</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="E7" t="n">
-        <v>217.4654547968858</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897548</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897548</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>724.0972899601853</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>724.0972899601853</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="V7" t="n">
-        <v>763.4834245766374</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="W7" t="n">
-        <v>763.4834245766374</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="X7" t="n">
-        <v>763.4834245766374</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.9631961374256</v>
+        <v>206.9555626398478</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.2419493182283</v>
+        <v>1638.329325930328</v>
       </c>
       <c r="C8" t="n">
-        <v>430.2794323778165</v>
+        <v>1269.366808989917</v>
       </c>
       <c r="D8" t="n">
-        <v>72.01373377106601</v>
+        <v>1269.366808989917</v>
       </c>
       <c r="E8" t="n">
-        <v>72.01373377106601</v>
+        <v>883.5785563916725</v>
       </c>
       <c r="F8" t="n">
-        <v>65.06823302186254</v>
+        <v>876.633055642469</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961286</v>
+        <v>459.5987042221182</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>170.3340168324469</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339154</v>
+        <v>78.37975993750925</v>
       </c>
       <c r="K8" t="n">
-        <v>606.874511937425</v>
+        <v>427.4454992132411</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472679</v>
+        <v>988.5226753405306</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.123170346061</v>
+        <v>1184.417289095159</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208701</v>
+        <v>1388.095490880684</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.860163237715</v>
+        <v>1944.079959395603</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.02319515174</v>
+        <v>2380.925457210259</v>
       </c>
       <c r="Q8" t="n">
-        <v>2593.177001405962</v>
+        <v>2631.75647342981</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2633.278422232926</v>
+        <v>2480.048483423635</v>
       </c>
       <c r="T8" t="n">
-        <v>2633.278422232926</v>
+        <v>2265.4825130188</v>
       </c>
       <c r="U8" t="n">
-        <v>2633.278422232926</v>
+        <v>2011.795084191408</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.215534889356</v>
+        <v>2011.795084191408</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.446879619242</v>
+        <v>2011.795084191408</v>
       </c>
       <c r="X8" t="n">
-        <v>1575.981121358162</v>
+        <v>1638.329325930328</v>
       </c>
       <c r="Y8" t="n">
-        <v>1185.84178938235</v>
+        <v>1638.329325930328</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240908</v>
+        <v>964.8336473419789</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429638</v>
+        <v>790.3806180608519</v>
       </c>
       <c r="D9" t="n">
-        <v>626.3292567817125</v>
+        <v>641.4462083996007</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762571</v>
+        <v>482.2087533941451</v>
       </c>
       <c r="F9" t="n">
-        <v>320.557243803142</v>
+        <v>335.6741954210301</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097575</v>
+        <v>198.2613855341749</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175716</v>
+        <v>97.62150519712887</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927873</v>
+        <v>174.007338992944</v>
       </c>
       <c r="K9" t="n">
-        <v>592.0690635359304</v>
+        <v>437.5132014664726</v>
       </c>
       <c r="L9" t="n">
-        <v>1015.345156390857</v>
+        <v>947.9583972381452</v>
       </c>
       <c r="M9" t="n">
-        <v>1285.203262171209</v>
+        <v>1595.60308619952</v>
       </c>
       <c r="N9" t="n">
-        <v>1576.61235393946</v>
+        <v>1801.547065738125</v>
       </c>
       <c r="O9" t="n">
-        <v>1820.974946321541</v>
+        <v>1967.72577739504</v>
       </c>
       <c r="P9" t="n">
-        <v>2313.042544805116</v>
+        <v>2397.043918783987</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.278933760978</v>
+        <v>2631.333957441672</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.278933760978</v>
+        <v>2611.997006284786</v>
       </c>
       <c r="S9" t="n">
-        <v>2446.5708042934</v>
+        <v>2463.061222138049</v>
       </c>
       <c r="T9" t="n">
-        <v>2251.048145581358</v>
+        <v>2266.187155008028</v>
       </c>
       <c r="U9" t="n">
-        <v>2022.93329667459</v>
+        <v>2038.050248292478</v>
       </c>
       <c r="V9" t="n">
-        <v>1787.781188442847</v>
+        <v>1802.898140060735</v>
       </c>
       <c r="W9" t="n">
-        <v>1533.543831714645</v>
+        <v>1548.660783332534</v>
       </c>
       <c r="X9" t="n">
-        <v>1325.692331509113</v>
+        <v>1340.809283127001</v>
       </c>
       <c r="Y9" t="n">
-        <v>1117.932032744159</v>
+        <v>1133.048984362047</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>882.7353065763581</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>817.4648326262468</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>667.348193213911</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>519.4350996315179</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>372.5451521336075</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>204.2433605354195</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969995</v>
+        <v>156.4779680624832</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696233</v>
+        <v>344.8032955874344</v>
       </c>
       <c r="M10" t="n">
-        <v>673.524533242453</v>
+        <v>553.7550713976545</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331251</v>
+        <v>763.1730574311435</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557399</v>
+        <v>940.5881673018274</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081421</v>
+        <v>1068.876760974643</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617906</v>
+        <v>1074.262053355801</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.517436617906</v>
+        <v>944.8617361128538</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617906</v>
+        <v>944.8617361128538</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.517436617906</v>
+        <v>944.8617361128538</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.517436617906</v>
+        <v>655.710866982128</v>
       </c>
       <c r="V10" t="n">
-        <v>1331.517436617906</v>
+        <v>655.710866982128</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.517436617906</v>
+        <v>655.710866982128</v>
       </c>
       <c r="X10" t="n">
-        <v>1103.527885719888</v>
+        <v>427.7213160841106</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.7353065763581</v>
+        <v>206.9287369405805</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.321720032921</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.359203092509</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.093504485759</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>753.3052518875147</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>342.3193470979072</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907332</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907332</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469246</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386843</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604048</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604048</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333934</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.060892072855</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.921560097043</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792127</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K12" t="n">
-        <v>477.16213223765</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843904</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282795</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.8809112460594</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>392.8809112460594</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D13" t="n">
-        <v>392.8809112460594</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460594</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246918</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457701</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888913</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691434</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544732</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564558</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129257</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007883</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409639</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200316</v>
+        <v>742.4225746200293</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060308</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060308</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>424.3593983639618</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>915.0917312077131</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081963</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802894</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679537</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855605</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876502</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861977</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.348929935359</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438436</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925215</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925215</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987604</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,16 +6072,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167109</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>549.614540988804</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>549.614540988804</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469507</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327636</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048567</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048567</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>594.8179559048567</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>447.9280084069465</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>280.7319091218264</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>139.0200779640247</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630033</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925218</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925218</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>297.8113689946115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135298</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856229</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.1315533873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768876</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>414.4022433768876</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>414.4022433768875</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,10 +7573,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7655,16 +7655,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536385</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133958</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310027</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330923</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524071</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.40087886827</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662383</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>335.3310259116175</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>176.8008973295439</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>101.0927485134521</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>101.2797400137718</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>369.5300492536817</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5650977678448</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105188</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673613</v>
+        <v>262.4659553797777</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.306678538598</v>
       </c>
       <c r="L9" t="n">
-        <v>210.7206060333448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381688</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729269</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>171.867265181547</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.1174529787394</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>64.04844901173956</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613728991</v>
+        <v>50.29152613729264</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.0459944701407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>103.8640922513198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>21.62386594322857</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393226</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>36.51445555167311</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.8640922513195</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.8542358274165</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>69.70496293143177</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516617</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>977316.2949761647</v>
+        <v>996032.5432032967</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853103.978860438</v>
+        <v>928571.2330688464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>928571.233068847</v>
+        <v>928571.2330688465</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933708.0853286179</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286179</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185704</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958227</v>
+        <v>481607.8629828184</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828184</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.413710985</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991881</v>
+        <v>11268.60111879545</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.6534729293</v>
+        <v>753384.8560707825</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051386</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.2362355791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135517</v>
+        <v>124946.8475185311</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156827.9060218332</v>
+        <v>181823.6926234227</v>
       </c>
       <c r="E4" t="n">
-        <v>6188.359574389008</v>
+        <v>6280.947910469699</v>
       </c>
       <c r="F4" t="n">
-        <v>6280.9479104697</v>
+        <v>6280.947910469699</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695043</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695043</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629366</v>
+        <v>86904.91983724409</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-570595.5326043848</v>
       </c>
       <c r="C6" t="n">
-        <v>222051.8811066</v>
+        <v>222051.8811066003</v>
       </c>
       <c r="D6" t="n">
-        <v>102100.7854812551</v>
+        <v>212627.8483391076</v>
       </c>
       <c r="E6" t="n">
-        <v>-108889.0918136426</v>
+        <v>-378245.9745078379</v>
       </c>
       <c r="F6" t="n">
-        <v>208663.4394533718</v>
+        <v>375138.8815629444</v>
       </c>
       <c r="G6" t="n">
-        <v>365710.7132228226</v>
+        <v>365675.9752973865</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.9494584013</v>
+        <v>376843.2115329656</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329656</v>
       </c>
       <c r="J6" t="n">
-        <v>204516.9570581208</v>
+        <v>204482.2191326849</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584016</v>
+        <v>376843.2115329655</v>
       </c>
       <c r="M6" t="n">
-        <v>296478.052027046</v>
+        <v>251896.3640144347</v>
       </c>
       <c r="N6" t="n">
-        <v>333095.5428999122</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="O6" t="n">
-        <v>373854.6514811768</v>
+        <v>373819.9135557409</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329658</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673344</v>
+        <v>606.6339902357028</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292694</v>
+        <v>13.15788989763765</v>
       </c>
       <c r="E3" t="n">
-        <v>451.219847027221</v>
+        <v>751.4070584806826</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634868</v>
+        <v>501.3837960808456</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173592</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634868</v>
+        <v>501.3837960808456</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634868</v>
+        <v>501.3837960808456</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>31.90318898855634</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>229.7340298837217</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.82086006892078</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>164.0066919866895</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64.59259034340488</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>176.9675115373693</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>9.286135639525412</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.5396271972751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1458232469789</v>
+        <v>28.12712199194686</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234796</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>137.5610136768627</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124901</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>27.14644095497928</v>
       </c>
       <c r="C10" t="n">
-        <v>102.6290518880177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8970492121321</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.5011390246442</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632264</v>
+        <v>122.5530119813615</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.01831877137671</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340312</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.102795479007</v>
+        <v>204.9523790323519</v>
       </c>
       <c r="T10" t="n">
-        <v>222.082528811566</v>
+        <v>223.271524257613</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.961821894643222e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30915,7 +30915,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>3.581135388230905e-12</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -31157,7 +31157,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707875</v>
+        <v>2.438729608987748</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878828</v>
+        <v>24.97563960804578</v>
       </c>
       <c r="I8" t="n">
-        <v>117.935843558058</v>
+        <v>94.01912325050024</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377465</v>
+        <v>206.9841271508241</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468209</v>
+        <v>310.2155514992755</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930608</v>
+        <v>384.8498227703344</v>
       </c>
       <c r="M8" t="n">
-        <v>537.1506955492857</v>
+        <v>428.2195804541702</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770358</v>
+        <v>435.1486209557067</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156406</v>
+        <v>410.8985034063347</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878524</v>
+        <v>350.6923661844497</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.348079269314</v>
+        <v>263.3553620625759</v>
       </c>
       <c r="R8" t="n">
-        <v>192.16101246103</v>
+        <v>153.1918488005768</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914326</v>
+        <v>55.57255096480836</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164123</v>
+        <v>10.67553886334387</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166299</v>
+        <v>0.1950983687190198</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759927</v>
+        <v>1.304835375223965</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857614</v>
+        <v>12.60196270282092</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989223</v>
+        <v>44.92525305047422</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385552</v>
+        <v>123.2783281478045</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164703</v>
+        <v>210.7022982878101</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826909</v>
+        <v>283.3152423265893</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546972</v>
+        <v>330.615524678458</v>
       </c>
       <c r="N9" t="n">
-        <v>425.694330031061</v>
+        <v>339.3659338394994</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404858</v>
+        <v>310.4535289463789</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406303</v>
+        <v>249.1663270460569</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611444</v>
+        <v>166.5610910549047</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201471</v>
+        <v>81.01425250732653</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093547</v>
+        <v>24.23674479856792</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900756</v>
+        <v>5.2594022361001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736795</v>
+        <v>0.08584443258052402</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.37220567625257</v>
+        <v>1.093930146326677</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159104</v>
+        <v>9.726033482795371</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403185</v>
+        <v>32.89746294589681</v>
       </c>
       <c r="J10" t="n">
-        <v>97.0149413110567</v>
+        <v>77.34086134529606</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864349</v>
+        <v>127.0947933641357</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675867</v>
+        <v>162.6375783002407</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511188</v>
+        <v>171.4785228464626</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578139</v>
+        <v>167.4011468465179</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397724</v>
+        <v>154.6220537735198</v>
       </c>
       <c r="P10" t="n">
-        <v>165.9620392442199</v>
+        <v>132.3058787884555</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.9035134905675</v>
+        <v>91.60173252559112</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313827</v>
+        <v>49.18707730665221</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796524</v>
+        <v>19.06421900462036</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715526</v>
+        <v>4.674065170668528</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104937</v>
+        <v>0.05966891707236427</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202552</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735513</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>403.4749205278532</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431806</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205468</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>506.4291208739053</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>476.0670419128834</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
-        <v>245.0916242622278</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
         <v>509.4561008748672</v>
@@ -34787,16 +34787,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>262.2162966637154</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>184.6768658466934</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>558.1153147338914</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -35024,13 +35024,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>273.6886459181081</v>
       </c>
       <c r="P6" t="n">
-        <v>146.953049683879</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6877588831339</v>
+        <v>25.93822262413778</v>
       </c>
       <c r="K8" t="n">
-        <v>312.0835465692016</v>
+        <v>352.5916558340726</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230736</v>
+        <v>566.7446223507975</v>
       </c>
       <c r="M8" t="n">
-        <v>306.804462322013</v>
+        <v>197.8733472268975</v>
       </c>
       <c r="N8" t="n">
-        <v>316.4292917804449</v>
+        <v>205.7355573591158</v>
       </c>
       <c r="O8" t="n">
-        <v>285.3252464939538</v>
+        <v>561.6004732473933</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040655</v>
+        <v>441.2580786006628</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.3573800547692</v>
+        <v>253.3646628480311</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451988029</v>
+        <v>3.322730859427082</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122974</v>
+        <v>122.5317368215466</v>
       </c>
       <c r="K9" t="n">
-        <v>390.9248511546899</v>
+        <v>266.1675378520491</v>
       </c>
       <c r="L9" t="n">
-        <v>427.5516089443706</v>
+        <v>515.6012078501743</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5839452326789</v>
+        <v>654.1865545064395</v>
       </c>
       <c r="N9" t="n">
-        <v>294.3526179477277</v>
+        <v>208.0242217561661</v>
       </c>
       <c r="O9" t="n">
-        <v>246.8309013960413</v>
+        <v>167.8572845019345</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662372</v>
+        <v>433.6546882716638</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.026655510972</v>
+        <v>236.6566047047322</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.655761194383928</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605521</v>
+        <v>104.8253015382529</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279028</v>
+        <v>190.2276035605568</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129593</v>
+        <v>211.0623998083032</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370425</v>
+        <v>211.5333192257465</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538121</v>
+        <v>179.2071816875595</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091134</v>
+        <v>129.584438053349</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887311</v>
+        <v>5.439689273896732</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458962</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693677146</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>261.3408866058349</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987362</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211629</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>363.8328764294609</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
